--- a/Examples/GroupDocs.Comparison.Examples.Java/Data/SourceFiles/source.xlsx
+++ b/Examples/GroupDocs.Comparison.Examples.Java/Data/SourceFiles/source.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>atir</t>
+    <t xml:space="preserve">Lorem Ipsum is simply dummy text of the printing and typesetting industry. </t>
   </si>
 </sst>
 </file>
